--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-Fuel_switching_options_industry</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -54,34 +45,25 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>RMI's analysis indicates that coal could be shifted to natural gas or "waste fuels (thermal)."</t>
-  </si>
-  <si>
-    <t>This seems particularly reasonable for the United States, where natural gas is relatively</t>
-  </si>
-  <si>
-    <t>inexpensive and combustible waste is not commonly used as an industrial fuel source.</t>
-  </si>
-  <si>
-    <t>We do not model combustible waste fuels, so we assume coal is shifted to gas.</t>
-  </si>
-  <si>
-    <t>The model also has the capability to shift natural gas to other fuel types.  The fuel type that</t>
-  </si>
-  <si>
-    <t>makes the most sense in this case is electricity.</t>
-  </si>
-  <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Coal</t>
   </si>
   <si>
     <t>RIFF Recipient Industrial Fuel Fractions for Natural Gas</t>
   </si>
   <si>
-    <t>For Canada, we estimate coal is switched to 90% natural gas (some of which is renewable</t>
-  </si>
-  <si>
-    <t>natural gas) and 10% biomass.</t>
+    <t>none needed</t>
+  </si>
+  <si>
+    <t>For the U.S., we model this lever as electrification of industry.</t>
+  </si>
+  <si>
+    <t>We previously shifted coal to natural gas (and natural gas to electricity), but</t>
+  </si>
+  <si>
+    <t>more of a priority to model a shift of coal to electricity than coal to natural gas.</t>
+  </si>
+  <si>
+    <t>as interest in exploring net-zero emissions scenarios increased, it became</t>
   </si>
 </sst>
 </file>
@@ -447,23 +429,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.26953125" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,27 +453,18 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,11 +472,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
@@ -511,27 +479,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -549,28 +502,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -578,23 +531,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -602,7 +555,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -622,20 +575,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -643,7 +596,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -651,7 +604,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -659,7 +612,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -667,7 +620,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -675,7 +628,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
